--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ltf-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ltf-Lrp1.xlsx
@@ -534,22 +534,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.134927</v>
+        <v>0.02542733333333333</v>
       </c>
       <c r="H2">
-        <v>0.4047810000000001</v>
+        <v>0.076282</v>
       </c>
       <c r="I2">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="J2">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>0.9100470392476667</v>
+        <v>0.1603408481906667</v>
       </c>
       <c r="R2">
-        <v>8.190423353229001</v>
+        <v>1.443067633716</v>
       </c>
       <c r="S2">
-        <v>0.003448079422711936</v>
+        <v>0.004396304182554078</v>
       </c>
       <c r="T2">
-        <v>0.003448079422711937</v>
+        <v>0.004396304182554078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.134927</v>
+        <v>0.02542733333333333</v>
       </c>
       <c r="H3">
-        <v>0.4047810000000001</v>
+        <v>0.076282</v>
       </c>
       <c r="I3">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="J3">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>24.62845230218967</v>
+        <v>4.641293930583778</v>
       </c>
       <c r="R3">
-        <v>221.656070719707</v>
+        <v>41.771645375254</v>
       </c>
       <c r="S3">
-        <v>0.09331480234980651</v>
+        <v>0.1272572781654778</v>
       </c>
       <c r="T3">
-        <v>0.09331480234980652</v>
+        <v>0.1272572781654778</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.134927</v>
+        <v>0.02542733333333333</v>
       </c>
       <c r="H4">
-        <v>0.4047810000000001</v>
+        <v>0.076282</v>
       </c>
       <c r="I4">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="J4">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>33.61475673225367</v>
+        <v>3.239350550275333</v>
       </c>
       <c r="R4">
-        <v>302.532810590283</v>
+        <v>29.154154952478</v>
       </c>
       <c r="S4">
-        <v>0.1273630328864878</v>
+        <v>0.0888181055148196</v>
       </c>
       <c r="T4">
-        <v>0.1273630328864878</v>
+        <v>0.08881810551481961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.134927</v>
+        <v>0.02542733333333333</v>
       </c>
       <c r="H5">
-        <v>0.4047810000000001</v>
+        <v>0.076282</v>
       </c>
       <c r="I5">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="J5">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>2.355884967782667</v>
+        <v>0.4939005565697778</v>
       </c>
       <c r="R5">
-        <v>21.20296471004401</v>
+        <v>4.445105009128</v>
       </c>
       <c r="S5">
-        <v>0.008926218238568501</v>
+        <v>0.01354200821010683</v>
       </c>
       <c r="T5">
-        <v>0.008926218238568503</v>
+        <v>0.01354200821010683</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.134927</v>
+        <v>0.02542733333333333</v>
       </c>
       <c r="H6">
-        <v>0.4047810000000001</v>
+        <v>0.076282</v>
       </c>
       <c r="I6">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="J6">
-        <v>0.328616021594853</v>
+        <v>0.3241752404264994</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>25.22205068569767</v>
+        <v>3.288348097748889</v>
       </c>
       <c r="R6">
-        <v>226.9984561712791</v>
+        <v>29.59513287974</v>
       </c>
       <c r="S6">
-        <v>0.09556388869727825</v>
+        <v>0.09016154435354108</v>
       </c>
       <c r="T6">
-        <v>0.09556388869727825</v>
+        <v>0.09016154435354108</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2756646666666667</v>
+        <v>0.05300966666666667</v>
       </c>
       <c r="H7">
-        <v>0.826994</v>
+        <v>0.159029</v>
       </c>
       <c r="I7">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="J7">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>1.859285493082889</v>
+        <v>0.3342707945113333</v>
       </c>
       <c r="R7">
-        <v>16.733569437746</v>
+        <v>3.008437150602</v>
       </c>
       <c r="S7">
-        <v>0.007044651290713335</v>
+        <v>0.00916520093662191</v>
       </c>
       <c r="T7">
-        <v>0.007044651290713337</v>
+        <v>0.009165200936621909</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.2756646666666667</v>
+        <v>0.05300966666666667</v>
       </c>
       <c r="H8">
-        <v>0.826994</v>
+        <v>0.159029</v>
       </c>
       <c r="I8">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="J8">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
-        <v>50.31753536652423</v>
+        <v>9.675943636595891</v>
       </c>
       <c r="R8">
-        <v>452.857818298718</v>
+        <v>87.083492729363</v>
       </c>
       <c r="S8">
-        <v>0.1906482311533295</v>
+        <v>0.2652997783143832</v>
       </c>
       <c r="T8">
-        <v>0.1906482311533295</v>
+        <v>0.2652997783143831</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2756646666666667</v>
+        <v>0.05300966666666667</v>
       </c>
       <c r="H9">
-        <v>0.826994</v>
+        <v>0.159029</v>
       </c>
       <c r="I9">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="J9">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>68.67714178539356</v>
+        <v>6.753240327465667</v>
       </c>
       <c r="R9">
-        <v>618.0942760685419</v>
+        <v>60.779162947191</v>
       </c>
       <c r="S9">
-        <v>0.2602109882107314</v>
+        <v>0.1851636624880869</v>
       </c>
       <c r="T9">
-        <v>0.2602109882107314</v>
+        <v>0.1851636624880869</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2756646666666667</v>
+        <v>0.05300966666666667</v>
       </c>
       <c r="H10">
-        <v>0.826994</v>
+        <v>0.159029</v>
       </c>
       <c r="I10">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="J10">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>4.813226740006223</v>
+        <v>1.029659836012889</v>
       </c>
       <c r="R10">
-        <v>43.319040660056</v>
+        <v>9.266938524116</v>
       </c>
       <c r="S10">
-        <v>0.01823684640827192</v>
+        <v>0.02823171945734354</v>
       </c>
       <c r="T10">
-        <v>0.01823684640827193</v>
+        <v>0.02823171945734353</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2756646666666667</v>
+        <v>0.05300966666666667</v>
       </c>
       <c r="H11">
-        <v>0.826994</v>
+        <v>0.159029</v>
       </c>
       <c r="I11">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="J11">
-        <v>0.671383978405147</v>
+        <v>0.6758247595735006</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>51.53029560371623</v>
+        <v>6.855388029114446</v>
       </c>
       <c r="R11">
-        <v>463.772660433446</v>
+        <v>61.69849226203001</v>
       </c>
       <c r="S11">
-        <v>0.1952432613421008</v>
+        <v>0.1879643983770652</v>
       </c>
       <c r="T11">
-        <v>0.1952432613421008</v>
+        <v>0.1879643983770651</v>
       </c>
     </row>
   </sheetData>
